--- a/Jira/Jira_TestCases.xlsx
+++ b/Jira/Jira_TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ameer\Desktop\Manual_Testing\Jira\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10BBA5B2-3B3C-407E-B2E7-82868412A328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1621D0D2-E9B8-4C85-A1E6-033CCC1D94D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D4B43CD4-E402-4696-A1C3-451F72D5F436}"/>
   </bookViews>
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -253,12 +253,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{035F893D-EB38-41C1-9892-2268C350D9D3}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A7" activeCellId="1" sqref="A8:XFD8 A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,7 +639,7 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="2"/>
@@ -660,7 +654,7 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="15" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="2"/>
@@ -711,121 +705,103 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+    <row r="7" spans="1:7" s="14" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" s="14" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="16" customFormat="1" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:7" s="14" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="9">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" s="16" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" s="16" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="9">
-        <v>4</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" s="16" customFormat="1" ht="131.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="9">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="2" t="s">
+      <c r="E11" s="11"/>
+      <c r="F11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" s="16" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="15">
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="13">
         <v>6</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="5" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="13"/>
+      <c r="G12" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{245876A0-227F-4726-8CA1-6F9EEA6F3900}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{26B15432-B2F8-4EA5-ADE2-47992FDB44B6}"/>
-    <hyperlink ref="E10" r:id="rId3" xr:uid="{D971F36E-672F-4676-9C1C-626726874380}"/>
+    <hyperlink ref="E7" r:id="rId2" xr:uid="{26B15432-B2F8-4EA5-ADE2-47992FDB44B6}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{D971F36E-672F-4676-9C1C-626726874380}"/>
     <hyperlink ref="E3" r:id="rId4" xr:uid="{9543D389-ADE6-4E17-B375-08F4C7E2FCD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
